--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_1_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_1_20.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1164680.582892051</v>
+        <v>1193524.893646777</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189902.9539564201</v>
+        <v>189902.9539564203</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9102620.618728809</v>
+        <v>9102620.618728811</v>
       </c>
     </row>
     <row r="9">
@@ -665,13 +667,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>268.7197286324177</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>300.5735285809522</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481177</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -756,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229206</v>
+        <v>49.71123688229341</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -823,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>18.37682225755616</v>
+        <v>18.37682225755673</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -835,10 +837,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853703</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -896,25 +898,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>184.5456511825242</v>
       </c>
       <c r="G5" t="n">
-        <v>278.6729300344279</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -981,7 +983,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>157.6450804554011</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -990,10 +992,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1060,22 +1062,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>84.4526210585752</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,19 +1098,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>9.27559683049722</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1148,7 +1150,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>156.601221907647</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>143.0437106724702</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229341</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,16 +1293,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>18.37682225755684</v>
       </c>
       <c r="F10" t="n">
-        <v>30.28266751616624</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -1309,10 +1311,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1367,19 +1369,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>413.784170020795</v>
@@ -1388,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>61.23347322494655</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S11" t="n">
         <v>174.4157128089715</v>
@@ -1427,16 +1429,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>15.82593128898491</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1531,10 +1533,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>18.3768222575565</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1546,10 +1548,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>49.92693022021953</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1607,10 +1609,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1622,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>104.5113366705979</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1652,13 +1654,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>199.6289396988174</v>
       </c>
       <c r="U14" t="n">
         <v>251.2241675082893</v>
@@ -1670,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1692,7 +1694,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554007</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
@@ -1771,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>18.37682225755673</v>
+        <v>18.3768222575565</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1786,7 +1788,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -2017,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2053,16 +2055,16 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2093,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>269.5134569480836</v>
+        <v>323.9918595228954</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2126,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2287,19 +2289,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>129.024624796403</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>168.7756050755994</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2321,16 +2323,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>269.5134569480836</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2363,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>1.998219257060982</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2378,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2530,13 +2532,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>128.7835007017903</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>129.0246247964034</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2558,19 +2560,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>111.8822753849634</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>257.0152846411285</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2600,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2612,16 +2614,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2725,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>162.3364906735232</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2770,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>162.336490673523</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2798,13 +2800,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>408.874264998772</v>
+        <v>355.5467565582664</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2852,13 +2854,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -3004,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>229.588948023153</v>
+        <v>236.7139500600956</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3013,10 +3015,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3032,7 +3034,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3041,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>323.9918595228954</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3092,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>339.0399185806816</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3123,10 +3125,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H33" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S33" t="n">
         <v>156.5912426325231</v>
@@ -3241,16 +3243,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>155.2114886365809</v>
+        <v>128.7835007017908</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3266,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3278,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>269.513456948084</v>
+        <v>340.0237825764901</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3311,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3326,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3424,13 +3426,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3439,10 +3441,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
-        <v>80.74987568070246</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>48.91401559658132</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3481,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3503,10 +3505,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3515,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>280.1033070984085</v>
+        <v>323.9918595228954</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3548,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3658,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3715,19 +3717,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>128.7835007017899</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>101.7806877295492</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3740,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3752,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>280.1033070984082</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3785,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3803,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>284.5615160058697</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3834,10 +3836,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H42" t="n">
-        <v>104.3883541553078</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3898,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3910,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>114.3028656524356</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3952,19 +3954,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3977,19 +3979,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>312.7927084532573</v>
+        <v>323.9918595228954</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4022,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4037,7 +4039,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4074,7 +4076,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1470.569074795014</v>
+        <v>1470.569074795015</v>
       </c>
       <c r="C2" t="n">
-        <v>1101.606557854602</v>
+        <v>1101.606557854604</v>
       </c>
       <c r="D2" t="n">
-        <v>743.340859247852</v>
+        <v>743.3408592478534</v>
       </c>
       <c r="E2" t="n">
-        <v>471.9067899221776</v>
+        <v>357.5526066496091</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>357.5526066496091</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791251</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862885</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="V2" t="n">
-        <v>2247.308246834948</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="W2" t="n">
-        <v>2247.308246834948</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="X2" t="n">
-        <v>2247.308246834948</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="Y2" t="n">
-        <v>1857.168914859136</v>
+        <v>1857.168914859137</v>
       </c>
     </row>
     <row r="3">
@@ -4404,31 +4406,31 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204942</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615926</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572644</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315295</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414846</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.07275543519</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.317569050019</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
         <v>2646.935720430048</v>
@@ -4462,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.128984206434</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C4" t="n">
-        <v>728.128984206434</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D4" t="n">
-        <v>728.128984206434</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="E4" t="n">
-        <v>709.5665374816298</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="F4" t="n">
-        <v>562.6765899837194</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220518</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H4" t="n">
         <v>235.9284171545819</v>
@@ -4486,52 +4488,52 @@
         <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866325</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477909</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658208</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594899</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.128984206434</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.128984206434</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.128984206434</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.128984206434</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.128984206434</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.128984206434</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>728.128984206434</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>728.128984206434</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>728.128984206434</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.128984206434</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1490.470645930551</v>
+        <v>1507.939751500713</v>
       </c>
       <c r="C5" t="n">
-        <v>1490.470645930551</v>
+        <v>1138.977234560301</v>
       </c>
       <c r="D5" t="n">
-        <v>1132.2049473238</v>
+        <v>1138.977234560301</v>
       </c>
       <c r="E5" t="n">
-        <v>746.4166947255558</v>
+        <v>1138.977234560301</v>
       </c>
       <c r="F5" t="n">
-        <v>335.4307899359482</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224079</v>
@@ -4583,34 +4585,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U5" t="n">
-        <v>2267.209817970484</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="V5" t="n">
-        <v>2267.209817970484</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="W5" t="n">
-        <v>2267.209817970484</v>
+        <v>1894.539591564835</v>
       </c>
       <c r="X5" t="n">
-        <v>2267.209817970484</v>
+        <v>1894.539591564835</v>
       </c>
       <c r="Y5" t="n">
-        <v>1877.070485994672</v>
+        <v>1894.539591564835</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064342</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="D7" t="n">
-        <v>728.1289842064342</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="E7" t="n">
-        <v>580.2158906240411</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="F7" t="n">
-        <v>433.3259431261307</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="G7" t="n">
-        <v>348.0202652891861</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942406</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124033</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>108.9687959810051</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>99.59950625323009</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1268.68094731003</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="C8" t="n">
-        <v>1268.68094731003</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="D8" t="n">
-        <v>1268.68094731003</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4817,37 +4819,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2538.966038586256</v>
       </c>
       <c r="U8" t="n">
-        <v>2520.971603332393</v>
+        <v>2285.204253224348</v>
       </c>
       <c r="V8" t="n">
-        <v>2189.908715988822</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="W8" t="n">
-        <v>2045.420119349963</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="X8" t="n">
-        <v>2045.420119349963</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="Y8" t="n">
-        <v>1655.280787374151</v>
+        <v>1954.141365880777</v>
       </c>
     </row>
     <row r="9">
@@ -4857,40 +4859,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641987</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598706</v>
+        <v>670.8219208598709</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4902,22 +4904,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="C10" t="n">
-        <v>559.1928012785276</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="D10" t="n">
-        <v>559.1928012785276</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="E10" t="n">
-        <v>411.2797076961344</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="F10" t="n">
-        <v>380.6911546495019</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G10" t="n">
-        <v>211.6913543878343</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,7 +4971,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
         <v>529.6040388502502</v>
@@ -4978,34 +4980,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
     </row>
     <row r="11">
@@ -5015,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1288.509552617345</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="C11" t="n">
-        <v>919.5470356769335</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D11" t="n">
-        <v>919.5470356769335</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E11" t="n">
-        <v>533.7587830786892</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F11" t="n">
-        <v>533.7587830786892</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G11" t="n">
-        <v>115.7949749768761</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H11" t="n">
-        <v>115.7949749768761</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I11" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533138</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O11" t="n">
         <v>2238.843319642689</v>
@@ -5063,28 +5065,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S11" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T11" t="n">
-        <v>2302.336936304455</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U11" t="n">
-        <v>2048.575150942547</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V11" t="n">
-        <v>2048.575150942547</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W11" t="n">
-        <v>2048.575150942547</v>
+        <v>1646.497784948677</v>
       </c>
       <c r="X11" t="n">
-        <v>1675.109392681467</v>
+        <v>1273.032026687597</v>
       </c>
       <c r="Y11" t="n">
-        <v>1675.109392681467</v>
+        <v>882.8926947117852</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5120,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K12" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L12" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M12" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N12" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O12" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P12" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q12" t="n">
         <v>2697.149091018223</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D13" t="n">
-        <v>578.0123447940987</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E13" t="n">
-        <v>578.0123447940987</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="F13" t="n">
-        <v>431.1223972961883</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G13" t="n">
-        <v>262.1225970345207</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H13" t="n">
-        <v>104.3742244670509</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I13" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J13" t="n">
         <v>53.94298182036445</v>
@@ -5203,46 +5205,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M13" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>159.5099885583422</v>
+        <v>781.1711973675267</v>
       </c>
       <c r="C14" t="n">
-        <v>159.5099885583422</v>
+        <v>412.2086804271149</v>
       </c>
       <c r="D14" t="n">
-        <v>159.5099885583422</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E14" t="n">
-        <v>159.5099885583422</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F14" t="n">
-        <v>159.5099885583422</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G14" t="n">
-        <v>159.5099885583422</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H14" t="n">
         <v>53.94298182036445</v>
@@ -5276,19 +5278,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533142</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O14" t="n">
         <v>2238.843319642689</v>
@@ -5300,28 +5302,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S14" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T14" t="n">
-        <v>2247.308246834948</v>
+        <v>2495.503697383053</v>
       </c>
       <c r="U14" t="n">
-        <v>1993.54646147304</v>
+        <v>2241.741912021145</v>
       </c>
       <c r="V14" t="n">
-        <v>1662.48357412947</v>
+        <v>1910.679024677574</v>
       </c>
       <c r="W14" t="n">
-        <v>1309.714918859356</v>
+        <v>1557.91036940746</v>
       </c>
       <c r="X14" t="n">
-        <v>936.2491605982757</v>
+        <v>1557.91036940746</v>
       </c>
       <c r="Y14" t="n">
-        <v>546.109828622464</v>
+        <v>1167.771037431648</v>
       </c>
     </row>
     <row r="15">
@@ -5331,13 +5333,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C15" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E15" t="n">
         <v>505.8730812692495</v>
@@ -5355,16 +5357,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K15" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L15" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M15" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N15" t="n">
         <v>1748.695370517453</v>
@@ -5376,22 +5378,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q15" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R15" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U15" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W15" t="n">
         <v>1572.325111207638</v>
@@ -5410,13 +5412,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E16" t="n">
         <v>709.5665374816297</v>
@@ -5428,10 +5430,10 @@
         <v>393.6767897220517</v>
       </c>
       <c r="H16" t="n">
-        <v>235.9284171545818</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I16" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J16" t="n">
         <v>53.94298182036445</v>
@@ -5440,46 +5442,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L16" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M16" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="17">
@@ -5513,13 +5515,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K17" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
@@ -5568,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C18" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
         <v>53.94298182036445</v>
@@ -5595,46 +5597,46 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K18" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L18" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M18" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N18" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O18" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P18" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q18" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W18" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X18" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y18" t="n">
         <v>1156.713312237151</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>184.0273259635867</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C19" t="n">
-        <v>184.0273259635867</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D19" t="n">
-        <v>184.0273259635867</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E19" t="n">
-        <v>184.0273259635867</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F19" t="n">
-        <v>184.0273259635867</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G19" t="n">
-        <v>184.0273259635867</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H19" t="n">
         <v>53.94298182036445</v>
@@ -5701,22 +5703,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T19" t="n">
-        <v>728.1289842064342</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="U19" t="n">
-        <v>728.1289842064342</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V19" t="n">
-        <v>473.4444960005474</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W19" t="n">
-        <v>184.0273259635867</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X19" t="n">
-        <v>184.0273259635867</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y19" t="n">
-        <v>184.0273259635867</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1491.915471247702</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C20" t="n">
-        <v>1122.952954307291</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D20" t="n">
-        <v>1122.952954307291</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E20" t="n">
-        <v>737.1647017090463</v>
+        <v>792.1933911785532</v>
       </c>
       <c r="F20" t="n">
-        <v>326.1787969194388</v>
+        <v>381.2074863889456</v>
       </c>
       <c r="G20" t="n">
         <v>53.94298182036445</v>
@@ -5753,16 +5755,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
@@ -5774,28 +5776,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S20" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T20" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U20" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V20" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W20" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X20" t="n">
-        <v>2268.654643287636</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y20" t="n">
-        <v>1878.515311311824</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="21">
@@ -5805,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C21" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H21" t="n">
         <v>115.9856282673424</v>
@@ -5832,13 +5834,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K21" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L21" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M21" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N21" t="n">
         <v>1748.695370517453</v>
@@ -5850,28 +5852,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q21" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R21" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S21" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T21" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U21" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W21" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X21" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y21" t="n">
         <v>1156.713312237151</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K22" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M22" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N22" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O22" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S22" t="n">
-        <v>2566.821187183472</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T22" t="n">
-        <v>2566.821187183472</v>
+        <v>343.360151857325</v>
       </c>
       <c r="U22" t="n">
-        <v>2277.64757683804</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V22" t="n">
-        <v>2022.963088632153</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1491.915471247702</v>
+        <v>1192.157102157134</v>
       </c>
       <c r="C23" t="n">
-        <v>1122.952954307291</v>
+        <v>823.1945852167225</v>
       </c>
       <c r="D23" t="n">
-        <v>1122.952954307291</v>
+        <v>464.928886609972</v>
       </c>
       <c r="E23" t="n">
-        <v>737.1647017090463</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F23" t="n">
-        <v>326.1787969194388</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G23" t="n">
         <v>53.94298182036445</v>
@@ -5987,19 +5989,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
@@ -6011,28 +6013,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2642.120401548716</v>
+        <v>2695.130687728262</v>
       </c>
       <c r="S23" t="n">
-        <v>2642.120401548716</v>
+        <v>2695.130687728262</v>
       </c>
       <c r="T23" t="n">
-        <v>2642.120401548716</v>
+        <v>2695.130687728262</v>
       </c>
       <c r="U23" t="n">
-        <v>2642.120401548716</v>
+        <v>2695.130687728262</v>
       </c>
       <c r="V23" t="n">
-        <v>2642.120401548716</v>
+        <v>2695.130687728262</v>
       </c>
       <c r="W23" t="n">
-        <v>2642.120401548716</v>
+        <v>2342.362032458147</v>
       </c>
       <c r="X23" t="n">
-        <v>2268.654643287636</v>
+        <v>1968.896274197068</v>
       </c>
       <c r="Y23" t="n">
-        <v>1878.515311311824</v>
+        <v>1578.756942221256</v>
       </c>
     </row>
     <row r="24">
@@ -6066,16 +6068,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K24" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L24" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M24" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N24" t="n">
         <v>1748.695370517453</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K25" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M25" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N25" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O25" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U25" t="n">
-        <v>2407.975480672791</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V25" t="n">
-        <v>2153.290992466904</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="26">
@@ -6200,31 +6202,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>863.1126181035243</v>
+        <v>2255.520561484594</v>
       </c>
       <c r="C26" t="n">
-        <v>494.1501011631125</v>
+        <v>1886.558044544182</v>
       </c>
       <c r="D26" t="n">
-        <v>494.1501011631125</v>
+        <v>1528.292345937432</v>
       </c>
       <c r="E26" t="n">
-        <v>494.1501011631125</v>
+        <v>1142.504093339188</v>
       </c>
       <c r="F26" t="n">
-        <v>494.1501011631125</v>
+        <v>731.5181885495801</v>
       </c>
       <c r="G26" t="n">
-        <v>381.1377017843616</v>
+        <v>313.554380447767</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K26" t="n">
         <v>463.9616490733127</v>
@@ -6242,34 +6244,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P26" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q26" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R26" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S26" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T26" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U26" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V26" t="n">
-        <v>2366.086203674652</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W26" t="n">
-        <v>2013.317548404538</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X26" t="n">
-        <v>1639.851790143458</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="Y26" t="n">
-        <v>1249.712458167646</v>
+        <v>2642.120401548716</v>
       </c>
     </row>
     <row r="27">
@@ -6300,19 +6302,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J27" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K27" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L27" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M27" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N27" t="n">
         <v>1748.695370517453</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>217.9192350259435</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C28" t="n">
-        <v>217.9192350259435</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D28" t="n">
-        <v>217.9192350259435</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E28" t="n">
-        <v>217.9192350259435</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F28" t="n">
-        <v>217.9192350259435</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K28" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L28" t="n">
-        <v>237.819032447791</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M28" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N28" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T28" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U28" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V28" t="n">
-        <v>728.1289842064342</v>
+        <v>2533.172837812644</v>
       </c>
       <c r="W28" t="n">
-        <v>438.7118141694736</v>
+        <v>2243.755667775683</v>
       </c>
       <c r="X28" t="n">
-        <v>438.7118141694736</v>
+        <v>2243.755667775683</v>
       </c>
       <c r="Y28" t="n">
-        <v>217.9192350259435</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1194.175505447094</v>
+        <v>1937.083492693021</v>
       </c>
       <c r="C29" t="n">
-        <v>825.2129885066827</v>
+        <v>1568.12097575261</v>
       </c>
       <c r="D29" t="n">
-        <v>466.9472898999322</v>
+        <v>1209.855277145859</v>
       </c>
       <c r="E29" t="n">
-        <v>466.9472898999322</v>
+        <v>824.0670245476149</v>
       </c>
       <c r="F29" t="n">
-        <v>466.9472898999322</v>
+        <v>413.0811197580073</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L29" t="n">
         <v>881.2824271224075</v>
@@ -6479,34 +6481,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P29" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q29" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R29" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S29" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T29" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U29" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V29" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W29" t="n">
-        <v>2344.380435748108</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X29" t="n">
-        <v>1970.914677487028</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y29" t="n">
-        <v>1580.775345511216</v>
+        <v>2323.683332757143</v>
       </c>
     </row>
     <row r="30">
@@ -6537,7 +6539,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J30" t="n">
         <v>129.2001442204943</v>
@@ -6552,13 +6554,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N30" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O30" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018223</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C31" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D31" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E31" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F31" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G31" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H31" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K31" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M31" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N31" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S31" t="n">
-        <v>513.8405610245969</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T31" t="n">
-        <v>513.8405610245969</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U31" t="n">
-        <v>281.9325327183818</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="V31" t="n">
-        <v>281.9325327183818</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W31" t="n">
-        <v>281.9325327183818</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X31" t="n">
-        <v>53.94298182036444</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y31" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1546.944160717209</v>
+        <v>1577.945354755379</v>
       </c>
       <c r="C32" t="n">
-        <v>1177.981643776797</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D32" t="n">
-        <v>1177.981643776797</v>
+        <v>850.7171392082163</v>
       </c>
       <c r="E32" t="n">
-        <v>792.1933911785532</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F32" t="n">
-        <v>381.2074863889456</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G32" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O32" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P32" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q32" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R32" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S32" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T32" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U32" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V32" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W32" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X32" t="n">
-        <v>2323.683332757143</v>
+        <v>2354.684526795312</v>
       </c>
       <c r="Y32" t="n">
-        <v>1933.544000781331</v>
+        <v>1964.5451948195</v>
       </c>
     </row>
     <row r="33">
@@ -6768,34 +6770,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H33" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J33" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K33" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L33" t="n">
-        <v>789.0633827572647</v>
+        <v>713.806220357135</v>
       </c>
       <c r="M33" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N33" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O33" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018223</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>53.94298182036444</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C34" t="n">
-        <v>53.94298182036444</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D34" t="n">
-        <v>53.94298182036444</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E34" t="n">
-        <v>53.94298182036444</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F34" t="n">
-        <v>53.94298182036444</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G34" t="n">
-        <v>53.94298182036444</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H34" t="n">
-        <v>53.94298182036444</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I34" t="n">
-        <v>53.94298182036444</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J34" t="n">
-        <v>53.94298182036444</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K34" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L34" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M34" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N34" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O34" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P34" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q34" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R34" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S34" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T34" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U34" t="n">
-        <v>571.3497027553424</v>
+        <v>2567.064746875</v>
       </c>
       <c r="V34" t="n">
-        <v>571.3497027553424</v>
+        <v>2312.380258669113</v>
       </c>
       <c r="W34" t="n">
-        <v>281.9325327183818</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="X34" t="n">
-        <v>53.94298182036444</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y34" t="n">
-        <v>53.94298182036444</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1491.915471247703</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="C35" t="n">
-        <v>1122.952954307291</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="D35" t="n">
-        <v>1122.952954307291</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="E35" t="n">
-        <v>737.1647017090468</v>
+        <v>808.3872528488509</v>
       </c>
       <c r="F35" t="n">
-        <v>326.1787969194392</v>
+        <v>397.4013480592434</v>
       </c>
       <c r="G35" t="n">
         <v>53.94298182036446</v>
@@ -6938,19 +6940,19 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733131</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M35" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N35" t="n">
         <v>1836.345445977175</v>
       </c>
       <c r="O35" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P35" t="n">
         <v>2544.691559791253</v>
@@ -6959,28 +6961,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W35" t="n">
-        <v>2642.120401548716</v>
+        <v>2344.380435748109</v>
       </c>
       <c r="X35" t="n">
-        <v>2268.654643287636</v>
+        <v>1970.914677487029</v>
       </c>
       <c r="Y35" t="n">
-        <v>1878.515311311824</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="36">
@@ -7020,10 +7022,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L36" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M36" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N36" t="n">
         <v>1748.695370517453</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>473.4444960005475</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="C37" t="n">
-        <v>304.5083130726406</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="D37" t="n">
-        <v>304.5083130726406</v>
+        <v>2547.032451605887</v>
       </c>
       <c r="E37" t="n">
-        <v>304.5083130726406</v>
+        <v>2399.119358023494</v>
       </c>
       <c r="F37" t="n">
-        <v>304.5083130726406</v>
+        <v>2399.119358023494</v>
       </c>
       <c r="G37" t="n">
-        <v>135.508512810973</v>
+        <v>2230.119557761826</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036446</v>
+        <v>2072.371185194357</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K37" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L37" t="n">
-        <v>237.819032447791</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M37" t="n">
-        <v>382.716901165821</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N37" t="n">
-        <v>529.60403885025</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O37" t="n">
-        <v>649.2617893594902</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P37" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q37" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R37" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S37" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T37" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U37" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V37" t="n">
-        <v>473.4444960005475</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W37" t="n">
-        <v>473.4444960005475</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X37" t="n">
-        <v>473.4444960005475</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Y37" t="n">
-        <v>473.4444960005475</v>
+        <v>2697.149091018223</v>
       </c>
     </row>
     <row r="38">
@@ -7148,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1491.915471247703</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C38" t="n">
-        <v>1491.915471247703</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D38" t="n">
-        <v>1133.649772640952</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E38" t="n">
-        <v>747.861520042708</v>
+        <v>792.1933911785532</v>
       </c>
       <c r="F38" t="n">
-        <v>336.8756152531004</v>
+        <v>381.2074863889456</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
@@ -7190,34 +7192,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P38" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q38" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X38" t="n">
-        <v>2268.654643287636</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y38" t="n">
-        <v>1878.515311311824</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="39">
@@ -7227,49 +7229,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C39" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H39" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036469</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
-        <v>129.2001442204945</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K39" t="n">
-        <v>384.447464661593</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L39" t="n">
-        <v>789.0633827572649</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M39" t="n">
         <v>1313.210296315296</v>
       </c>
       <c r="N39" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O39" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018223</v>
@@ -7296,7 +7298,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y39" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>222.8791647482714</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C40" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D40" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E40" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F40" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G40" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K40" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L40" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M40" t="n">
-        <v>382.716901165821</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N40" t="n">
-        <v>529.60403885025</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594902</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T40" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U40" t="n">
-        <v>728.1289842064343</v>
+        <v>2567.064746875</v>
       </c>
       <c r="V40" t="n">
-        <v>728.1289842064343</v>
+        <v>2312.380258669114</v>
       </c>
       <c r="W40" t="n">
-        <v>728.1289842064343</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="X40" t="n">
-        <v>625.3202087220412</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y40" t="n">
-        <v>404.5276295785111</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="41">
@@ -7385,52 +7387,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1577.945354755379</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C41" t="n">
-        <v>1208.982837814967</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="D41" t="n">
-        <v>850.7171392082163</v>
+        <v>1133.649772640952</v>
       </c>
       <c r="E41" t="n">
-        <v>464.928886609972</v>
+        <v>747.8615200427075</v>
       </c>
       <c r="F41" t="n">
-        <v>53.94298182036446</v>
+        <v>336.8756152531</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O41" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P41" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
         <v>2642.120401548716</v>
@@ -7451,10 +7453,10 @@
         <v>2642.120401548716</v>
       </c>
       <c r="X41" t="n">
-        <v>2354.684526795312</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y41" t="n">
-        <v>1964.5451948195</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="42">
@@ -7464,49 +7466,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H42" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K42" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L42" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M42" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N42" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O42" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018223</v>
@@ -7533,7 +7535,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y42" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="43">
@@ -7543,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>507.3364050629042</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C43" t="n">
-        <v>338.4002221349973</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D43" t="n">
-        <v>338.4002221349973</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E43" t="n">
-        <v>338.4002221349973</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F43" t="n">
-        <v>338.4002221349973</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G43" t="n">
-        <v>169.4004218733297</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K43" t="n">
         <v>110.2451748866326</v>
@@ -7576,43 +7578,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M43" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N43" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U43" t="n">
-        <v>728.1289842064343</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V43" t="n">
-        <v>728.1289842064343</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W43" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X43" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y43" t="n">
-        <v>507.3364050629042</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1139.146815977588</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C44" t="n">
-        <v>1139.146815977588</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D44" t="n">
-        <v>780.881117370838</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E44" t="n">
-        <v>780.881117370838</v>
+        <v>792.1933911785532</v>
       </c>
       <c r="F44" t="n">
-        <v>369.8952125812304</v>
+        <v>381.2074863889456</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733128</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O44" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P44" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q44" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W44" t="n">
-        <v>2289.351746278602</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X44" t="n">
-        <v>1915.885988017522</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y44" t="n">
-        <v>1525.74665604171</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="45">
@@ -7722,7 +7724,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J45" t="n">
         <v>129.2001442204943</v>
@@ -7734,16 +7736,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M45" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N45" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O45" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018223</v>
@@ -7780,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K46" t="n">
         <v>110.2451748866326</v>
@@ -7813,43 +7815,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M46" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N46" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R46" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S46" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T46" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U46" t="n">
-        <v>598.044640063212</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V46" t="n">
-        <v>343.3601518573251</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
   </sheetData>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747081</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8298,7 +8300,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747115</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719077</v>
+        <v>145.0294169142009</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8687,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720733</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
@@ -8766,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8781,13 +8783,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>274.4264991783519</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8924,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -8939,7 +8941,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627449</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -9003,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9015,7 +9017,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>435.9238900028825</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9243,7 +9245,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9261,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>145.0294169142014</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9489,7 +9491,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9714,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9723,10 +9725,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>422.2865794093294</v>
       </c>
       <c r="N24" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9951,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9963,7 +9965,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>359.906554245176</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -10200,7 +10202,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10209,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10425,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10437,7 +10439,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10446,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>166.658803395178</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10668,13 +10670,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10832,7 +10834,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119844</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
@@ -10911,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10920,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11136,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11157,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11303,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928328</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11382,7 +11384,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>346.2692436516228</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
@@ -11394,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22553,13 +22555,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>113.2106414398441</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>113.2106414398428</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -22711,7 +22713,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>128.057140389013</v>
+        <v>128.0571403890124</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22747,10 +22749,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491434</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -22784,25 +22786,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>222.3303945591873</v>
       </c>
       <c r="G5" t="n">
-        <v>135.1112399863671</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22829,28 +22831,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22948,22 +22950,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>82.85718120047571</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22984,19 +22986,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>277.0062774114805</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23018,13 +23020,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -23036,10 +23038,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23066,28 +23068,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>59.84709845001083</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>206.1972580449428</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23179,16 +23181,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>128.0571403890123</v>
       </c>
       <c r="F10" t="n">
-        <v>115.138380506765</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -23197,10 +23199,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23221,7 +23223,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
@@ -23255,19 +23257,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23276,7 +23278,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>90.6978430199147</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -23315,16 +23317,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>333.4150374284281</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23419,10 +23421,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>128.0571403890127</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23434,10 +23436,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>85.03869157211869</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
         <v>212.1455389500189</v>
@@ -23495,10 +23497,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -23510,7 +23512,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>219.4114360937592</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
         <v>151.9313162448613</v>
@@ -23540,13 +23542,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>16.81938065884043</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23558,7 +23560,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23659,7 +23661,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>128.0571403890124</v>
+        <v>128.0571403890127</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
         <v>212.1455389500189</v>
@@ -23905,7 +23907,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H19" t="n">
-        <v>27.38738814000507</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
         <v>134.9656217923382</v>
@@ -23941,16 +23943,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>225.0351054580843</v>
+        <v>96.01048066168096</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23981,7 +23983,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>144.2707130727114</v>
+        <v>89.79231049789962</v>
       </c>
       <c r="H20" t="n">
         <v>323.9227727643571</v>
@@ -24014,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S20" t="n">
         <v>174.4157128089715</v>
@@ -24148,7 +24150,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24172,22 +24174,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S22" t="n">
-        <v>83.12091415361593</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>225.0351054580843</v>
+        <v>56.2595003824849</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24209,16 +24211,16 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>144.2707130727114</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
@@ -24251,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>52.48018331775071</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
@@ -24266,7 +24268,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24385,7 +24387,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S25" t="n">
         <v>212.1455389500189</v>
@@ -24418,13 +24420,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>157.4983735401874</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>157.4983735401876</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24446,19 +24448,19 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>301.9018946358316</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>66.90748812322863</v>
       </c>
       <c r="I26" t="n">
         <v>151.9313162448613</v>
@@ -24488,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
@@ -24500,16 +24502,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24613,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>4.973311585527682</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
         <v>156.1708888417951</v>
@@ -24622,7 +24624,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S28" t="n">
         <v>212.1455389500189</v>
@@ -24658,7 +24660,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>89.801152650305</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24686,13 +24688,13 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.90990502202294</v>
+        <v>58.23741346252859</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
@@ -24725,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S29" t="n">
         <v>174.4157128089715</v>
@@ -24740,13 +24742,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24859,7 +24861,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,7 +24894,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>56.69292621882474</v>
+        <v>49.56792418188218</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24901,10 +24903,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24920,7 +24922,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24929,13 +24931,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>89.79231049789962</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
@@ -24980,7 +24982,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>30.69118209778748</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25096,7 +25098,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25117,10 +25119,10 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S34" t="n">
         <v>212.1455389500189</v>
@@ -25129,16 +25131,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>131.0703856053968</v>
+        <v>157.498373540187</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25154,7 +25156,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25166,7 +25168,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>144.270713072711</v>
+        <v>73.76038744430491</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
@@ -25199,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
@@ -25214,7 +25216,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25312,13 +25314,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25327,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>75.42101316109269</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923382</v>
+        <v>86.0516061957569</v>
       </c>
       <c r="J37" t="n">
         <v>45.199959188537</v>
@@ -25369,7 +25371,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25391,10 +25393,10 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25403,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>133.6808629223864</v>
+        <v>89.79231049789962</v>
       </c>
       <c r="H38" t="n">
         <v>323.9227727643571</v>
@@ -25436,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
@@ -25546,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25603,19 +25605,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401879</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>123.928967659488</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25628,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25640,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>133.6808629223868</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
@@ -25691,7 +25693,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>85.16958467259929</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25786,7 +25788,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25798,16 +25800,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
-        <v>41.86802318935953</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J43" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25828,7 +25830,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R43" t="n">
         <v>146.6651919801579</v>
@@ -25840,19 +25842,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25865,19 +25867,19 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>100.9914615675377</v>
+        <v>89.79231049789962</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
@@ -25910,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S44" t="n">
         <v>174.4157128089715</v>
@@ -25925,7 +25927,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26041,10 +26043,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J46" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26065,7 +26067,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R46" t="n">
         <v>146.6651919801579</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>731739.4345746959</v>
+        <v>731739.434574696</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>731739.4345746959</v>
+        <v>731739.434574696</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>731739.4345746959</v>
+        <v>731739.434574696</v>
       </c>
     </row>
     <row r="6">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>731739.4345746958</v>
+        <v>731739.4345746959</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>731739.4345746959</v>
+        <v>731739.4345746961</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>731739.4345746959</v>
+        <v>731739.434574696</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>731739.4345746959</v>
+        <v>731739.4345746958</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>731739.434574696</v>
+        <v>731739.4345746958</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>731739.4345746959</v>
+        <v>731739.4345746958</v>
       </c>
     </row>
   </sheetData>
@@ -26311,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>289152.6100157574</v>
+        <v>289152.6100157576</v>
       </c>
       <c r="C2" t="n">
+        <v>289152.6100157575</v>
+      </c>
+      <c r="D2" t="n">
+        <v>289152.6100157576</v>
+      </c>
+      <c r="E2" t="n">
+        <v>289152.6100157575</v>
+      </c>
+      <c r="F2" t="n">
+        <v>289152.6100157575</v>
+      </c>
+      <c r="G2" t="n">
         <v>289152.6100157577</v>
       </c>
-      <c r="D2" t="n">
+      <c r="H2" t="n">
         <v>289152.6100157577</v>
-      </c>
-      <c r="E2" t="n">
-        <v>289152.6100157576</v>
-      </c>
-      <c r="F2" t="n">
-        <v>289152.6100157576</v>
-      </c>
-      <c r="G2" t="n">
-        <v>289152.6100157576</v>
-      </c>
-      <c r="H2" t="n">
-        <v>289152.6100157576</v>
       </c>
       <c r="I2" t="n">
         <v>289152.6100157576</v>
       </c>
       <c r="J2" t="n">
-        <v>289152.6100157576</v>
+        <v>289152.6100157574</v>
       </c>
       <c r="K2" t="n">
-        <v>289152.6100157576</v>
+        <v>289152.6100157577</v>
       </c>
       <c r="L2" t="n">
         <v>289152.6100157576</v>
@@ -26350,10 +26352,10 @@
         <v>289152.6100157575</v>
       </c>
       <c r="O2" t="n">
-        <v>289152.6100157577</v>
+        <v>289152.6100157575</v>
       </c>
       <c r="P2" t="n">
-        <v>289152.6100157577</v>
+        <v>289152.6100157575</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145442</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9371.018034361481</v>
+        <v>9371.018034361483</v>
       </c>
       <c r="C4" t="n">
+        <v>9371.018034361483</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9371.018034361483</v>
+      </c>
+      <c r="E4" t="n">
         <v>9371.018034361485</v>
       </c>
-      <c r="D4" t="n">
+      <c r="F4" t="n">
         <v>9371.018034361485</v>
       </c>
-      <c r="E4" t="n">
-        <v>9371.018034361481</v>
-      </c>
-      <c r="F4" t="n">
-        <v>9371.018034361481</v>
-      </c>
       <c r="G4" t="n">
-        <v>9371.018034361481</v>
+        <v>9371.018034361483</v>
       </c>
       <c r="H4" t="n">
         <v>9371.018034361485</v>
@@ -26448,16 +26450,16 @@
         <v>9371.018034361483</v>
       </c>
       <c r="M4" t="n">
+        <v>9371.018034361485</v>
+      </c>
+      <c r="N4" t="n">
         <v>9371.018034361483</v>
       </c>
-      <c r="N4" t="n">
-        <v>9371.018034361485</v>
-      </c>
       <c r="O4" t="n">
-        <v>9371.018034361485</v>
+        <v>9371.018034361483</v>
       </c>
       <c r="P4" t="n">
-        <v>9371.018034361485</v>
+        <v>9371.018034361483</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
         <v>49231.47806340946</v>
@@ -26491,25 +26493,25 @@
         <v>49231.47806340946</v>
       </c>
       <c r="J5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="K5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="L5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340948</v>
       </c>
       <c r="M5" t="n">
         <v>49231.47806340947</v>
       </c>
       <c r="N5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="O5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="P5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-393045.3652965577</v>
+        <v>-393045.365296558</v>
       </c>
       <c r="C6" t="n">
-        <v>196922.5139179868</v>
+        <v>196922.5139179865</v>
       </c>
       <c r="D6" t="n">
-        <v>196922.5139179867</v>
+        <v>196922.5139179866</v>
       </c>
       <c r="E6" t="n">
-        <v>230550.1139179867</v>
+        <v>230550.1139179866</v>
       </c>
       <c r="F6" t="n">
         <v>230550.1139179866</v>
       </c>
       <c r="G6" t="n">
-        <v>230550.1139179866</v>
+        <v>230550.1139179867</v>
       </c>
       <c r="H6" t="n">
-        <v>230550.1139179866</v>
+        <v>230550.1139179867</v>
       </c>
       <c r="I6" t="n">
-        <v>230550.1139179866</v>
+        <v>230550.1139179867</v>
       </c>
       <c r="J6" t="n">
-        <v>54126.89472539378</v>
+        <v>54126.89472539342</v>
       </c>
       <c r="K6" t="n">
-        <v>230550.1139179866</v>
+        <v>230550.1139179867</v>
       </c>
       <c r="L6" t="n">
         <v>230550.1139179867</v>
       </c>
       <c r="M6" t="n">
-        <v>230550.1139179867</v>
+        <v>230550.1139179868</v>
       </c>
       <c r="N6" t="n">
-        <v>230550.1139179865</v>
+        <v>230550.1139179866</v>
       </c>
       <c r="O6" t="n">
-        <v>230550.1139179867</v>
+        <v>230550.1139179866</v>
       </c>
       <c r="P6" t="n">
-        <v>230550.1139179867</v>
+        <v>230550.1139179866</v>
       </c>
     </row>
   </sheetData>
@@ -26735,37 +26737,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170864</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
+        <v>377.7436642170869</v>
+      </c>
+      <c r="D3" t="n">
+        <v>377.7436642170868</v>
+      </c>
+      <c r="E3" t="n">
         <v>377.7436642170866</v>
       </c>
-      <c r="D3" t="n">
-        <v>377.7436642170867</v>
-      </c>
-      <c r="E3" t="n">
-        <v>377.7436642170867</v>
-      </c>
       <c r="F3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="G3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="H3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="I3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="J3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="K3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="L3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="M3" t="n">
         <v>377.7436642170866</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>674.2872727545556</v>
@@ -26811,25 +26813,25 @@
         <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="L4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="M4" t="n">
         <v>674.2872727545557</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
     </row>
   </sheetData>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170864</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -31039,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554463</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081576</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630668</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405366</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338302</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119864</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954665</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
-        <v>163.9882055044136</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633791</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.6043567772738</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473549</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141104</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188909</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890687</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396472</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478006</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
-        <v>211.3190711736699</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479576</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639064</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034978</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372663</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619149</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078606</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644438</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492003</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813575</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302234</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
-        <v>101.2724571246923</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M4" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N4" t="n">
-        <v>104.2386737666593</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175838</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383795</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678004</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701162</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197222</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03715511451315608</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31279,46 +31281,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31455,28 +31457,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31519,7 +31521,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31528,34 +31530,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,40 +31594,40 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I9" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
@@ -31634,7 +31636,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,25 +31697,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31756,19 +31758,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L11" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N11" t="n">
         <v>270.9617944338304</v>
@@ -31783,13 +31785,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31829,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I12" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31856,22 +31858,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q12" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S12" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,16 +31910,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I13" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K13" t="n">
         <v>79.14039391302239</v>
@@ -31932,16 +31934,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P13" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S13" t="n">
         <v>11.87105908695336</v>
@@ -31993,19 +31995,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L14" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N14" t="n">
         <v>270.9617944338304</v>
@@ -32020,13 +32022,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32066,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I15" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32093,22 +32095,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q15" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S15" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,16 +32147,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I16" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K16" t="n">
         <v>79.14039391302239</v>
@@ -32169,16 +32171,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P16" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S16" t="n">
         <v>11.87105908695336</v>
@@ -32467,19 +32469,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K20" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L20" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M20" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N20" t="n">
         <v>270.9617944338304</v>
@@ -32494,13 +32496,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S20" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32540,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I21" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32567,22 +32569,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P21" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q21" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S21" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T21" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,16 +32621,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I22" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K22" t="n">
         <v>79.14039391302239</v>
@@ -32643,16 +32645,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P22" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R22" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S22" t="n">
         <v>11.87105908695336</v>
@@ -32704,19 +32706,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K23" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L23" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M23" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N23" t="n">
         <v>270.9617944338304</v>
@@ -32731,13 +32733,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S23" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32777,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I24" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32804,22 +32806,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P24" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q24" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S24" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I25" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K25" t="n">
         <v>79.14039391302239</v>
@@ -32880,16 +32882,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P25" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R25" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S25" t="n">
         <v>11.87105908695336</v>
@@ -32941,19 +32943,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K26" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L26" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M26" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N26" t="n">
         <v>270.9617944338304</v>
@@ -32968,13 +32970,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S26" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33014,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I27" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33041,22 +33043,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P27" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q27" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S27" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I28" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K28" t="n">
         <v>79.14039391302239</v>
@@ -33117,16 +33119,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P28" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R28" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S28" t="n">
         <v>11.87105908695336</v>
@@ -33178,19 +33180,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K29" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L29" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M29" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N29" t="n">
         <v>270.9617944338304</v>
@@ -33205,13 +33207,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S29" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33251,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I30" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33278,22 +33280,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P30" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q30" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S30" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T30" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I31" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K31" t="n">
         <v>79.14039391302239</v>
@@ -33354,16 +33356,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P31" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R31" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S31" t="n">
         <v>11.87105908695336</v>
@@ -33415,43 +33417,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K32" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L32" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M32" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N32" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O32" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P32" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q32" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S32" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I33" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K33" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L33" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M33" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N33" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O33" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P33" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q33" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S33" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I34" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K34" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L34" t="n">
         <v>101.2724571246924</v>
@@ -33591,25 +33593,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P34" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R34" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S34" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T34" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U34" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -34120,13 +34122,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H41" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
@@ -34144,22 +34146,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P41" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q41" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S41" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34199,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I42" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34232,16 +34234,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S42" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T42" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I43" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J43" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L43" t="n">
         <v>101.2724571246924</v>
@@ -34302,13 +34304,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R43" t="n">
         <v>30.62819939701163</v>
@@ -34317,7 +34319,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T43" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U43" t="n">
         <v>0.0371551145131561</v>
@@ -34357,13 +34359,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H44" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
@@ -34381,22 +34383,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O44" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P44" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q44" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S44" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34436,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I45" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34469,16 +34471,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S45" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T45" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I46" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J46" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L46" t="n">
         <v>101.2724571246924</v>
@@ -34539,13 +34541,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R46" t="n">
         <v>30.62819939701163</v>
@@ -34554,7 +34556,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T46" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U46" t="n">
         <v>0.0371551145131561</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343418</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.53613944353</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492235</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
-        <v>406.563508753045</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116796</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
-        <v>153.9975062898688</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770686</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713856</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713948</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M4" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N4" t="n">
-        <v>148.3708461458879</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O4" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873144</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,10 +35096,10 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L7" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M7" t="n">
         <v>146.3614835535656</v>
@@ -35106,10 +35108,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35176,22 +35178,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,16 +35251,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624589</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338903</v>
@@ -35331,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35343,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.9372285181306</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K11" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O11" t="n">
         <v>406.5635087530452</v>
@@ -35486,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>257.8255762031298</v>
@@ -35498,16 +35500,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O12" t="n">
-        <v>325.1459203262123</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35644,22 +35646,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.9372285181311</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K14" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530448</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P14" t="n">
         <v>308.9376163116798</v>
@@ -35723,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K15" t="n">
         <v>257.8255762031298</v>
@@ -35735,13 +35737,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>515.9012490932192</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O15" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
         <v>173.8110948137341</v>
@@ -35963,7 +35965,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L18" t="n">
         <v>408.7029475713857</v>
@@ -35981,7 +35983,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K20" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L20" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M20" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N20" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O20" t="n">
         <v>406.5635087530452</v>
@@ -36197,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K21" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L21" t="n">
         <v>408.7029475713857</v>
@@ -36209,13 +36211,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O21" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q21" t="n">
         <v>173.8110948137341</v>
@@ -36355,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K23" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L23" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M23" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N23" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O23" t="n">
         <v>406.5635087530452</v>
@@ -36434,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
@@ -36443,16 +36445,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M24" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856233</v>
       </c>
       <c r="N24" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O24" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q24" t="n">
         <v>173.8110948137341</v>
@@ -36592,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K26" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L26" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M26" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N26" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O26" t="n">
         <v>406.5635087530452</v>
@@ -36671,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
@@ -36683,13 +36685,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>439.8839133355128</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O27" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q27" t="n">
         <v>173.8110948137341</v>
@@ -36829,19 +36831,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K29" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L29" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M29" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N29" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O29" t="n">
         <v>406.5635087530452</v>
@@ -36908,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36920,16 +36922,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q30" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37066,28 +37068,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K32" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L32" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M32" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N32" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O32" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P32" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q32" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L33" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M33" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N33" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O33" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q33" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37227,7 +37229,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L34" t="n">
         <v>128.8624823850085</v>
@@ -37239,10 +37241,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O34" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P34" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37388,13 +37390,13 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L36" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M36" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245898</v>
@@ -37552,7 +37554,7 @@
         <v>485.8144648060965</v>
       </c>
       <c r="N38" t="n">
-        <v>478.8956552492239</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O38" t="n">
         <v>406.5635087530452</v>
@@ -37631,7 +37633,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245898</v>
@@ -37640,7 +37642,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37792,10 +37794,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P41" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q41" t="n">
         <v>153.9975062898689</v>
@@ -37856,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K42" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L42" t="n">
         <v>408.7029475713857</v>
@@ -37871,13 +37873,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O42" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P42" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L43" t="n">
         <v>128.8624823850085</v>
@@ -37953,7 +37955,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38023,16 +38025,16 @@
         <v>421.5361394435301</v>
       </c>
       <c r="M44" t="n">
-        <v>485.8144648060969</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N44" t="n">
         <v>478.8956552492236</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P44" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q44" t="n">
         <v>153.9975062898689</v>
@@ -38093,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
@@ -38102,19 +38104,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M45" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O45" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P45" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L46" t="n">
         <v>128.8624823850085</v>
@@ -38190,7 +38192,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
